--- a/classification/droptc/sentence/drone-sbert/freeze/37622020/prediction.xlsx
+++ b/classification/droptc/sentence/drone-sbert/freeze/37622020/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7282083630561829</v>
+        <v>0.9998928308486938</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9845199584960938</v>
+        <v>0.9998577833175659</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9853530526161194</v>
+        <v>0.9998871088027954</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9822315573692322</v>
+        <v>0.9995501637458801</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9808225035667419</v>
+        <v>0.9998787641525269</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9822713136672974</v>
+        <v>0.9998897314071655</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9124805331230164</v>
+        <v>0.9999090433120728</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9837558269500732</v>
+        <v>0.999889612197876</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9169852733612061</v>
+        <v>0.9999090433120728</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.984200656414032</v>
+        <v>0.9999029636383057</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9837745428085327</v>
+        <v>0.9999169111251831</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9846944212913513</v>
+        <v>0.9997232556343079</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9823289513587952</v>
+        <v>0.9999018907546997</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9585628509521484</v>
+        <v>0.9998956918716431</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8611606359481812</v>
+        <v>0.9998759031295776</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9855550527572632</v>
+        <v>0.9998785257339478</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9849075078964233</v>
+        <v>0.9987887740135193</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9853530526161194</v>
+        <v>0.9998980760574341</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9098758697509766</v>
+        <v>0.9999164342880249</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9807470440864563</v>
+        <v>0.9998879432678223</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9841543436050415</v>
+        <v>0.9999018907546997</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9841955900192261</v>
+        <v>0.9998970031738281</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9822397232055664</v>
+        <v>0.9999023675918579</v>
       </c>
     </row>
     <row r="25">
@@ -1127,14 +1127,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9085947871208191</v>
+        <v>0.9995514750480652</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9823532104492188</v>
+        <v>0.9952976107597351</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9832419157028198</v>
+        <v>0.9998968839645386</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7154427766799927</v>
+        <v>0.9998577833175659</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.982995331287384</v>
+        <v>0.9998910427093506</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9846318960189819</v>
+        <v>0.999879002571106</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5240563750267029</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="32">
@@ -1323,14 +1323,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9581049084663391</v>
+        <v>0.9998915195465088</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9823287129402161</v>
+        <v>0.9997342228889465</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7055350542068481</v>
+        <v>0.9997405409812927</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8390530347824097</v>
+        <v>0.9996440410614014</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9824481606483459</v>
+        <v>0.9998886585235596</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9849446415901184</v>
+        <v>0.9996881484985352</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9842398166656494</v>
+        <v>0.9999099969863892</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9807500243186951</v>
+        <v>0.99835205078125</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9853478074073792</v>
+        <v>0.9997391104698181</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9844041466712952</v>
+        <v>0.9999092817306519</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9822713136672974</v>
+        <v>0.7501198053359985</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9831399321556091</v>
+        <v>0.9996879100799561</v>
       </c>
     </row>
     <row r="44">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9594830870628357</v>
+        <v>0.9995577931404114</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9806937575340271</v>
+        <v>0.9997820258140564</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9838408827781677</v>
+        <v>0.9997056126594543</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6045810580253601</v>
+        <v>0.9223531484603882</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9823372364044189</v>
+        <v>0.9996743202209473</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8727665543556213</v>
+        <v>0.9999175071716309</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.985575795173645</v>
+        <v>0.9995296001434326</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9847981333732605</v>
+        <v>0.9993064403533936</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9529415369033813</v>
+        <v>0.9998561143875122</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9848432540893555</v>
+        <v>0.9995296001434326</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9841788411140442</v>
+        <v>0.9995405673980713</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.939970850944519</v>
+        <v>0.9998893737792969</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9854978322982788</v>
+        <v>0.9999121427536011</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.983220100402832</v>
+        <v>0.9999163150787354</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9808225035667419</v>
+        <v>0.9996594190597534</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9563006162643433</v>
+        <v>0.9999170303344727</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9563006162643433</v>
+        <v>0.9999059438705444</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9037662148475647</v>
+        <v>0.9999098777770996</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9837540984153748</v>
+        <v>0.9999059438705444</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9526087641716003</v>
+        <v>0.9995664954185486</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9504374861717224</v>
+        <v>0.9976819753646851</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9838648438453674</v>
+        <v>0.999651312828064</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9847655296325684</v>
+        <v>0.999651312828064</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9822434782981873</v>
+        <v>0.9995707869529724</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9833289384841919</v>
+        <v>0.999651312828064</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.985188364982605</v>
+        <v>0.9997026324272156</v>
       </c>
     </row>
     <row r="70">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8019392490386963</v>
+        <v>0.9998883008956909</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9823974370956421</v>
+        <v>0.9996333122253418</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9840041995048523</v>
+        <v>0.999816358089447</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7994527220726013</v>
+        <v>0.9996947050094604</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9527662992477417</v>
+        <v>0.9999033212661743</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9837415218353271</v>
+        <v>0.9998770952224731</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9145038723945618</v>
+        <v>0.9996947050094604</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9529415369033813</v>
+        <v>0.999855637550354</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9807811975479126</v>
+        <v>0.9996947050094604</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9823373556137085</v>
+        <v>0.9998973608016968</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8976916670799255</v>
+        <v>0.9996883869171143</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9854523539543152</v>
+        <v>0.9998576641082764</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.956811249256134</v>
+        <v>0.9996883869171143</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9526087641716003</v>
+        <v>0.9998579025268555</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9853610396385193</v>
+        <v>0.9998579025268555</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9808225035667419</v>
+        <v>0.9999182224273682</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6356267333030701</v>
+        <v>0.9997099041938782</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9806514382362366</v>
+        <v>0.9998953342437744</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.982203483581543</v>
+        <v>0.9996851682662964</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9808225035667419</v>
+        <v>0.9998569488525391</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9707599878311157</v>
+        <v>0.9999014139175415</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.98508620262146</v>
+        <v>0.9999015331268311</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9549837708473206</v>
+        <v>0.9999016523361206</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9837121367454529</v>
+        <v>0.9999016523361206</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.98537677526474</v>
+        <v>0.9999014139175415</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9849839806556702</v>
+        <v>0.9999011754989624</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9831618070602417</v>
+        <v>0.9999160766601562</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9840277433395386</v>
+        <v>0.9989711046218872</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9823233485221863</v>
+        <v>0.9999148845672607</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8673452138900757</v>
+        <v>0.9997472167015076</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9838444590568542</v>
+        <v>0.9998897314071655</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8380754590034485</v>
+        <v>0.9998961687088013</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9840285181999207</v>
+        <v>0.9956734776496887</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9808017611503601</v>
+        <v>0.9996649026870728</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9810007214546204</v>
+        <v>0.9998772144317627</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8732028007507324</v>
+        <v>0.9997314810752869</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9808225035667419</v>
+        <v>0.9998888969421387</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9832693338394165</v>
+        <v>0.9997038245201111</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.908466100692749</v>
+        <v>0.9996139407157898</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9823916554450989</v>
+        <v>0.9998987913131714</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3636539578437805</v>
+        <v>0.9998577833175659</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.947829008102417</v>
+        <v>0.9997369647026062</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9830918908119202</v>
+        <v>0.9996713399887085</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9535346031188965</v>
+        <v>0.9997357726097107</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9780312180519104</v>
+        <v>0.9999067783355713</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9832215309143066</v>
+        <v>0.9997324347496033</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9188798666000366</v>
+        <v>0.9998573064804077</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9808225035667419</v>
+        <v>0.9998759031295776</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9172887206077576</v>
+        <v>0.9953597187995911</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>ParamViolation</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>ParamViolation</t>
-        </is>
-      </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8369945287704468</v>
+        <v>0.8125779032707214</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8976916670799255</v>
+        <v>0.9998577833175659</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9807456731796265</v>
+        <v>0.9997075200080872</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9834279417991638</v>
+        <v>0.9999153614044189</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9053118824958801</v>
+        <v>0.9997075200080872</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.984725296497345</v>
+        <v>0.9999153614044189</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9832001924514771</v>
+        <v>0.9997075200080872</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9529415369033813</v>
+        <v>0.9999147653579712</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9809004664421082</v>
+        <v>0.995989978313446</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9848179221153259</v>
+        <v>0.9998577833175659</v>
       </c>
     </row>
     <row r="129">
@@ -4039,14 +4039,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9831929206848145</v>
+        <v>0.9995788931846619</v>
       </c>
     </row>
     <row r="130">
@@ -4067,14 +4067,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9856523275375366</v>
+        <v>0.9965893030166626</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9595209360122681</v>
+        <v>0.9998787641525269</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9781288504600525</v>
+        <v>0.9976781010627747</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9837365746498108</v>
+        <v>0.9998770952224731</v>
       </c>
     </row>
     <row r="134">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.984850287437439</v>
+        <v>0.9999035596847534</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9802159667015076</v>
+        <v>0.9998893737792969</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9600071907043457</v>
+        <v>0.9998478889465332</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9838680028915405</v>
+        <v>0.9998781681060791</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.8766149282455444</v>
+        <v>0.9998770952224731</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.8434744477272034</v>
+        <v>0.9998785257339478</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.983185887336731</v>
+        <v>0.9998605251312256</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9109984636306763</v>
+        <v>0.9613506197929382</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9841933846473694</v>
+        <v>0.9998577833175659</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9476041793823242</v>
+        <v>0.9996482133865356</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9823554158210754</v>
+        <v>0.9999057054519653</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9807500243186951</v>
+        <v>0.9996482133865356</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.8467748165130615</v>
+        <v>0.99985671043396</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.911807119846344</v>
+        <v>0.9997026324272156</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9168698191642761</v>
+        <v>0.9998958110809326</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9834944605827332</v>
+        <v>0.9996795654296875</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9176977276802063</v>
+        <v>0.9993951320648193</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.4860799908638</v>
+        <v>0.9998577833175659</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.984226405620575</v>
+        <v>0.9970800280570984</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9560036659240723</v>
+        <v>0.999913215637207</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9843460917472839</v>
+        <v>0.9996329545974731</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9841750264167786</v>
+        <v>0.9999040365219116</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9842877388000488</v>
+        <v>0.9996311664581299</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9838575720787048</v>
+        <v>0.999907374382019</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9053118824958801</v>
+        <v>0.9996329545974731</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9560831785202026</v>
+        <v>0.9999089241027832</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9808225035667419</v>
+        <v>0.9996879100799561</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9845442175865173</v>
+        <v>0.9998975992202759</v>
       </c>
     </row>
     <row r="162">
@@ -4958,19 +4958,19 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8727665543556213</v>
+        <v>0.9436319470405579</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.984355628490448</v>
+        <v>0.9998780488967896</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9566903114318848</v>
+        <v>0.9996432065963745</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9821673631668091</v>
+        <v>0.9999152421951294</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9560036659240723</v>
+        <v>0.9996280670166016</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9854809641838074</v>
+        <v>0.9996271133422852</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.6103562116622925</v>
+        <v>0.9997239708900452</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9847788214683533</v>
+        <v>0.9998577833175659</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4945279359817505</v>
+        <v>0.9996271133422852</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.8424901366233826</v>
+        <v>0.9997105002403259</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8461464643478394</v>
+        <v>0.9998577833175659</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.8778640627861023</v>
+        <v>0.9998784065246582</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9753138422966003</v>
+        <v>0.9998779296875</v>
       </c>
     </row>
     <row r="175">
@@ -5322,19 +5322,19 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E175" t="b">
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9554417133331299</v>
+        <v>0.9998784065246582</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9223111271858215</v>
+        <v>0.9998784065246582</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9822074770927429</v>
+        <v>0.9998779296875</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9846233725547791</v>
+        <v>0.9998974800109863</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9823554158210754</v>
+        <v>0.9998171925544739</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9808225035667419</v>
+        <v>0.9998787641525269</v>
       </c>
     </row>
     <row r="181">
@@ -5490,19 +5490,19 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E181" t="b">
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9588320851325989</v>
+        <v>0.9998987913131714</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9824898242950439</v>
+        <v>0.9998890161514282</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9832068681716919</v>
+        <v>0.99972003698349</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.983207106590271</v>
+        <v>0.9999076128005981</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9852478504180908</v>
+        <v>0.9999066591262817</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9841510057449341</v>
+        <v>0.9999085664749146</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9823318123817444</v>
+        <v>0.9999079704284668</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9563006162643433</v>
+        <v>0.9998961687088013</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.4688816666603088</v>
+        <v>0.9998999834060669</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9472424983978271</v>
+        <v>0.9998999834060669</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9848179221153259</v>
+        <v>0.9987075328826904</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.8732028007507324</v>
+        <v>0.9998902082443237</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.8814857602119446</v>
+        <v>0.9998800754547119</v>
       </c>
     </row>
     <row r="194">
@@ -5859,14 +5859,14 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.8974183201789856</v>
+        <v>0.9996505975723267</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9845847487449646</v>
+        <v>0.9997467398643494</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9822574257850647</v>
+        <v>0.9999089241027832</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9846946597099304</v>
+        <v>0.9999090433120728</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9837920665740967</v>
+        <v>0.9999105930328369</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4034402966499329</v>
+        <v>0.9998958110809326</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9823554158210754</v>
+        <v>0.9993975162506104</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9854879975318909</v>
+        <v>0.9998961687088013</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9808225035667419</v>
+        <v>0.9998993873596191</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E203" t="b">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8460418581962585</v>
+        <v>0.9998778104782104</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9838500022888184</v>
+        <v>0.9996104836463928</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9840387105941772</v>
+        <v>0.9999135732650757</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.5608654022216797</v>
+        <v>0.9998770952224731</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9531762599945068</v>
+        <v>0.9990353584289551</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9779963493347168</v>
+        <v>0.9998190999031067</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.7110162377357483</v>
+        <v>0.994772732257843</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.8732028007507324</v>
+        <v>0.9998772144317627</v>
       </c>
     </row>
   </sheetData>
